--- a/results_info.xlsx
+++ b/results_info.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393F3BED-AF42-4ADD-BBA9-9EE8BF90B93A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF345238-3CF7-48DD-BDAB-32C11D2C75CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="1725" windowWidth="15330" windowHeight="11490" tabRatio="621" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11160" yWindow="1725" windowWidth="15330" windowHeight="11490" tabRatio="621" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -981,7 +981,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1071,7 +1071,7 @@
         <v>2019</v>
       </c>
       <c r="E8" s="16">
-        <v>2857</v>
+        <v>3083</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -1081,7 +1081,7 @@
       <c r="D9" s="16"/>
       <c r="E9" s="16">
         <f>SUM(E2:E8)</f>
-        <v>62894</v>
+        <v>63120</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -36360,7 +36360,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36449,7 +36449,7 @@
         <v>79</v>
       </c>
       <c r="B8" s="14">
-        <v>79141</v>
+        <v>79234</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>100</v>
@@ -36464,7 +36464,7 @@
         <v>84</v>
       </c>
       <c r="B9" s="14">
-        <v>2953</v>
+        <v>2966</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>85</v>
@@ -36521,7 +36521,7 @@
         <v>107</v>
       </c>
       <c r="B15" s="14">
-        <v>63630</v>
+        <v>70203</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>109</v>
@@ -36631,7 +36631,7 @@
         <v>97</v>
       </c>
       <c r="B29" s="14">
-        <v>2954</v>
+        <v>3047</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>101</v>
@@ -36658,7 +36658,7 @@
         <v>95</v>
       </c>
       <c r="B33" s="14">
-        <v>3971</v>
+        <v>4064</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>87</v>
@@ -36690,7 +36690,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36780,11 +36780,19 @@
       <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4">
+        <v>93</v>
+      </c>
       <c r="C5" s="6"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="D5" s="4">
+        <v>93</v>
+      </c>
+      <c r="E5" s="4">
+        <v>93</v>
+      </c>
+      <c r="F5" s="4">
+        <v>93</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
@@ -36871,19 +36879,19 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <f>SUM(B2:B13)</f>
-        <v>2990</v>
+        <v>3083</v>
       </c>
       <c r="D14" s="21">
         <f>SUM(D2:D13)</f>
-        <v>2951</v>
+        <v>3044</v>
       </c>
       <c r="E14" s="21">
         <f>SUM(E2:E13)</f>
-        <v>2951</v>
+        <v>3044</v>
       </c>
       <c r="F14" s="21">
         <f>SUM(F2:F13)</f>
-        <v>2941</v>
+        <v>3034</v>
       </c>
     </row>
   </sheetData>

--- a/results_info.xlsx
+++ b/results_info.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF345238-3CF7-48DD-BDAB-32C11D2C75CF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B78E0F-70C7-4125-9109-D583449EB54D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11160" yWindow="1725" windowWidth="15330" windowHeight="11490" tabRatio="621" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9225" yWindow="2010" windowWidth="15330" windowHeight="11490" tabRatio="621" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -565,7 +565,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -643,11 +643,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -698,6 +707,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -981,7 +991,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1021,7 +1031,7 @@
         <v>36</v>
       </c>
       <c r="B3" s="9">
-        <v>3675</v>
+        <v>3710</v>
       </c>
       <c r="D3" s="16">
         <v>2014</v>
@@ -1071,7 +1081,7 @@
         <v>2019</v>
       </c>
       <c r="E8" s="16">
-        <v>3083</v>
+        <v>3437</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -1081,7 +1091,7 @@
       <c r="D9" s="16"/>
       <c r="E9" s="16">
         <f>SUM(E2:E8)</f>
-        <v>63120</v>
+        <v>63474</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1089,6 +1099,16 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G12" s="22"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>69392</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>2829</v>
+      </c>
     </row>
     <row r="21" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G21" s="22"/>
@@ -36687,10 +36707,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C0477F-6AB5-4B5B-84E8-99831DB6389C}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36702,7 +36722,7 @@
     <col min="6" max="6" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4">
         <v>2019</v>
       </c>
@@ -36722,12 +36742,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>1140</v>
+        <v>1011</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="4">
@@ -36740,12 +36760,12 @@
         <v>987</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>813</v>
+        <v>942</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="4">
@@ -36758,7 +36778,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -36767,7 +36787,7 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="4">
-        <v>1024</v>
+        <v>1070</v>
       </c>
       <c r="E4" s="4">
         <v>1024</v>
@@ -36776,25 +36796,25 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>93</v>
+        <v>447</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="4">
-        <v>93</v>
+        <v>442</v>
       </c>
       <c r="E5" s="4">
-        <v>93</v>
+        <v>442</v>
       </c>
       <c r="F5" s="4">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -36804,19 +36824,19 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="6">
-        <v>990</v>
+        <v>1043</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -36826,7 +36846,7 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -36836,7 +36856,7 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -36845,8 +36865,9 @@
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -36855,8 +36876,9 @@
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -36865,8 +36887,9 @@
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -36875,24 +36898,26 @@
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <f>SUM(B2:B13)</f>
-        <v>3083</v>
+        <v>3437</v>
       </c>
       <c r="D14" s="21">
         <f>SUM(D2:D13)</f>
-        <v>3044</v>
+        <v>3439</v>
       </c>
       <c r="E14" s="21">
         <f>SUM(E2:E13)</f>
-        <v>3044</v>
+        <v>3393</v>
       </c>
       <c r="F14" s="21">
         <f>SUM(F2:F13)</f>
-        <v>3034</v>
-      </c>
+        <v>3383</v>
+      </c>
+      <c r="J14" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -36906,7 +36931,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F14"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -37777,7 +37802,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -38066,8 +38091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A84BEE0-7D85-489C-84D0-F5B597B57676}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -38114,7 +38139,7 @@
         <v>944</v>
       </c>
       <c r="F2" s="4">
-        <v>417</v>
+        <v>933</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -38132,7 +38157,7 @@
         <v>925</v>
       </c>
       <c r="F3" s="4">
-        <v>425</v>
+        <v>832</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -38150,7 +38175,7 @@
         <v>1068</v>
       </c>
       <c r="F4" s="4">
-        <v>533</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -38168,7 +38193,7 @@
         <v>893</v>
       </c>
       <c r="F5" s="4">
-        <v>375</v>
+        <v>761</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -38186,7 +38211,7 @@
         <v>924</v>
       </c>
       <c r="F6" s="4">
-        <v>784</v>
+        <v>924</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -38332,7 +38357,7 @@
       </c>
       <c r="F14" s="21">
         <f>SUM(F2:F13)</f>
-        <v>7183</v>
+        <v>9167</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">

--- a/results_info.xlsx
+++ b/results_info.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B78E0F-70C7-4125-9109-D583449EB54D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99A37AA-6C74-4342-A54D-32AE683FA6FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9225" yWindow="2010" windowWidth="15330" windowHeight="11490" tabRatio="621" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9225" yWindow="2010" windowWidth="15330" windowHeight="11490" tabRatio="621" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -990,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8F9E73-0344-470D-BB75-62495DB1D290}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1081,7 +1081,7 @@
         <v>2019</v>
       </c>
       <c r="E8" s="16">
-        <v>3437</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -1091,7 +1091,7 @@
       <c r="D9" s="16"/>
       <c r="E9" s="16">
         <f>SUM(E2:E8)</f>
-        <v>63474</v>
+        <v>63565</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -36379,8 +36379,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0AA768-DA10-4ADB-9A00-F3E456E2B965}">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36469,7 +36469,7 @@
         <v>79</v>
       </c>
       <c r="B8" s="14">
-        <v>79234</v>
+        <v>69479</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>100</v>
@@ -36541,7 +36541,7 @@
         <v>107</v>
       </c>
       <c r="B15" s="14">
-        <v>70203</v>
+        <v>12206</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>109</v>
@@ -36710,7 +36710,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36801,17 +36801,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>447</v>
+        <v>538</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="4">
-        <v>442</v>
+        <v>532</v>
       </c>
       <c r="E5" s="4">
-        <v>442</v>
+        <v>532</v>
       </c>
       <c r="F5" s="4">
-        <v>442</v>
+        <v>532</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -36903,19 +36903,19 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <f>SUM(B2:B13)</f>
-        <v>3437</v>
+        <v>3528</v>
       </c>
       <c r="D14" s="21">
         <f>SUM(D2:D13)</f>
-        <v>3439</v>
+        <v>3529</v>
       </c>
       <c r="E14" s="21">
         <f>SUM(E2:E13)</f>
-        <v>3393</v>
+        <v>3483</v>
       </c>
       <c r="F14" s="21">
         <f>SUM(F2:F13)</f>
-        <v>3383</v>
+        <v>3473</v>
       </c>
       <c r="J14" s="28"/>
     </row>
@@ -38091,7 +38091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A84BEE0-7D85-489C-84D0-F5B597B57676}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>

--- a/results_info.xlsx
+++ b/results_info.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99A37AA-6C74-4342-A54D-32AE683FA6FD}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBDCD46-E8F3-4556-B6D5-E900FF111A43}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9225" yWindow="2010" windowWidth="15330" windowHeight="11490" tabRatio="621" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9225" yWindow="2010" windowWidth="15330" windowHeight="11490" tabRatio="621" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="112">
   <si>
     <t>results count</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -464,6 +464,10 @@
     <t>sectionalOdds</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>t_race_card_future_2018</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -656,7 +660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -708,6 +712,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -990,8 +997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B8F9E73-0344-470D-BB75-62495DB1D290}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1021,9 +1028,7 @@
       <c r="D2" s="16">
         <v>2013</v>
       </c>
-      <c r="E2" s="16">
-        <v>10012</v>
-      </c>
+      <c r="E2" s="16"/>
       <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1091,7 +1096,7 @@
       <c r="D9" s="16"/>
       <c r="E9" s="16">
         <f>SUM(E2:E8)</f>
-        <v>63565</v>
+        <v>53553</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -36377,10 +36382,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0AA768-DA10-4ADB-9A00-F3E456E2B965}">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36469,7 +36474,7 @@
         <v>79</v>
       </c>
       <c r="B8" s="14">
-        <v>69479</v>
+        <v>73729</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>100</v>
@@ -36484,7 +36489,7 @@
         <v>84</v>
       </c>
       <c r="B9" s="14">
-        <v>2966</v>
+        <v>2916</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>85</v>
@@ -36541,7 +36546,7 @@
         <v>107</v>
       </c>
       <c r="B15" s="14">
-        <v>12206</v>
+        <v>43981</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>109</v>
@@ -36651,7 +36656,7 @@
         <v>97</v>
       </c>
       <c r="B29" s="14">
-        <v>3047</v>
+        <v>1599</v>
       </c>
       <c r="C29" s="15" t="s">
         <v>101</v>
@@ -36674,29 +36679,40 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="27" t="s">
-        <v>95</v>
+      <c r="A33" s="29" t="s">
+        <v>111</v>
       </c>
       <c r="B33" s="14">
-        <v>4064</v>
+        <v>808</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="14">
+        <v>1599</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B35" s="14">
         <v>128</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C35" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="19"/>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C36" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -36709,8 +36725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C0477F-6AB5-4B5B-84E8-99831DB6389C}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36801,28 +36817,36 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>538</v>
+        <v>899</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="4">
-        <v>532</v>
+        <v>888</v>
       </c>
       <c r="E5" s="4">
-        <v>532</v>
+        <v>888</v>
       </c>
       <c r="F5" s="4">
-        <v>532</v>
+        <v>888</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="4"/>
+      <c r="B6" s="4">
+        <v>232</v>
+      </c>
       <c r="C6" s="6"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="D6" s="4">
+        <v>231</v>
+      </c>
+      <c r="E6" s="4">
+        <v>231</v>
+      </c>
+      <c r="F6" s="4">
+        <v>231</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
@@ -36903,19 +36927,19 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <f>SUM(B2:B13)</f>
-        <v>3528</v>
+        <v>4121</v>
       </c>
       <c r="D14" s="21">
         <f>SUM(D2:D13)</f>
-        <v>3529</v>
+        <v>4116</v>
       </c>
       <c r="E14" s="21">
         <f>SUM(E2:E13)</f>
-        <v>3483</v>
+        <v>4070</v>
       </c>
       <c r="F14" s="21">
         <f>SUM(F2:F13)</f>
-        <v>3473</v>
+        <v>4060</v>
       </c>
       <c r="J14" s="28"/>
     </row>
@@ -37222,7 +37246,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/results_info.xlsx
+++ b/results_info.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBDCD46-E8F3-4556-B6D5-E900FF111A43}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D35684F-E36E-4331-B340-DFFE727935A9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9225" yWindow="2010" windowWidth="15330" windowHeight="11490" tabRatio="621" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9570" yWindow="2355" windowWidth="15330" windowHeight="11490" tabRatio="621" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="6" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="120">
   <si>
     <t>results count</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,10 +175,6 @@
   </si>
   <si>
     <t>2019-1-1当天的比赛数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2013~2019</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -468,6 +464,40 @@
     <t>t_race_card_future_2018</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>2014~2019</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ee_horse_pedigree</t>
+  </si>
+  <si>
+    <t>bb_race_dividend</t>
+  </si>
+  <si>
+    <t>20190518-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc_horse_race_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ff_race_results</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gg_display_sectional_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tt_race_card_history</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tt_race_card_future</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -501,7 +531,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,6 +595,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,7 +696,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -713,6 +749,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -998,7 +1040,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -1033,10 +1075,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="B3" s="9">
-        <v>3710</v>
+        <v>3323</v>
       </c>
       <c r="D3" s="16">
         <v>2014</v>
@@ -1051,7 +1093,7 @@
         <v>2015</v>
       </c>
       <c r="E4" s="16">
-        <v>10225</v>
+        <v>10224</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -1062,7 +1104,7 @@
         <v>2016</v>
       </c>
       <c r="E5" s="16">
-        <v>10103</v>
+        <v>10102</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -1086,7 +1128,7 @@
         <v>2019</v>
       </c>
       <c r="E8" s="16">
-        <v>3528</v>
+        <v>4685</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -1096,7 +1138,7 @@
       <c r="D9" s="16"/>
       <c r="E9" s="16">
         <f>SUM(E2:E8)</f>
-        <v>53553</v>
+        <v>54708</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1130,7 +1172,7 @@
   <dimension ref="A1:G779"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1165,7 +1207,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C2" s="2"/>
       <c r="E2" s="10">
@@ -1219,7 +1261,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C5" s="2"/>
       <c r="E5" s="10">
@@ -9825,7 +9867,7 @@
   <dimension ref="A1:G770"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9862,7 +9904,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>1130</v>
+        <v>1137</v>
       </c>
       <c r="C2" s="2"/>
       <c r="E2" s="10">
@@ -10078,7 +10120,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <f>SUM(B2:B13)</f>
-        <v>9824</v>
+        <v>9831</v>
       </c>
       <c r="E14" s="10">
         <v>40912</v>
@@ -18423,7 +18465,7 @@
   <dimension ref="A1:G760"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -18642,7 +18684,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="4">
-        <v>946</v>
+        <v>952</v>
       </c>
       <c r="C12" s="2"/>
       <c r="E12" s="10">
@@ -18660,7 +18702,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="4">
-        <v>835</v>
+        <v>848</v>
       </c>
       <c r="C13" s="3"/>
       <c r="E13" s="10">
@@ -18676,7 +18718,7 @@
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <f>SUM(B2:B13)</f>
-        <v>9673</v>
+        <v>9692</v>
       </c>
       <c r="E14" s="10">
         <v>40548</v>
@@ -26897,6 +26939,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -35604,7 +35647,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -35769,7 +35812,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -35934,7 +35977,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -36122,7 +36165,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="14">
         <v>126</v>
@@ -36144,233 +36187,233 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="14">
         <v>124</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="14">
         <v>93</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="14">
         <v>127</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="14">
         <v>88</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="14">
         <v>122</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="14">
         <v>95</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" s="14">
         <v>118</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B15" s="14">
         <v>94</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B16" s="14">
         <v>127</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="14">
         <v>128</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B18" s="14">
         <v>125</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="14">
         <v>104</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B20" s="14">
         <v>126</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B21" s="14">
         <v>96</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B22" s="14">
         <v>130</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B23" s="14">
         <v>130</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B24" s="14">
         <v>96</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" s="14">
         <v>61990</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B27" s="14">
         <v>61433</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B28" s="14">
         <v>62218</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B30" s="14">
         <v>51084</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -36382,10 +36425,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC0AA768-DA10-4ADB-9A00-F3E456E2B965}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36419,10 +36462,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="26">
         <v>6</v>
@@ -36430,10 +36473,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="25">
         <v>8</v>
@@ -36441,10 +36484,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>88</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>89</v>
       </c>
       <c r="D5" s="25">
         <v>7</v>
@@ -36457,13 +36500,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B7" s="14">
         <v>3730</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D7" s="26">
         <v>2</v>
@@ -36471,13 +36514,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B8" s="14">
-        <v>73729</v>
+        <v>71240</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D8">
         <f>SUM(D1:D7)</f>
@@ -36486,35 +36529,35 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="14">
+        <v>3056</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>84</v>
-      </c>
-      <c r="B9" s="14">
-        <v>2916</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B10" s="14">
         <v>1585</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="14">
         <v>803</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -36543,18 +36586,18 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B15" s="14">
-        <v>43981</v>
+        <v>81529</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -36567,7 +36610,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B20" s="14">
         <v>3416</v>
@@ -36636,30 +36679,30 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C27" s="15"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B28" s="14">
         <v>900</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B29" s="14">
-        <v>1599</v>
+        <v>2379</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
@@ -36675,44 +36718,103 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B33" s="14">
         <v>808</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B34" s="14">
-        <v>1599</v>
+        <v>2379</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B35" s="14">
         <v>128</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C36" s="19"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="14">
+        <v>75890</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="14">
+        <v>71254</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="B40" s="14">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="14">
+        <v>116570</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B42" s="14">
+        <v>54220</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="14">
+        <v>54220</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="14">
+        <v>453</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -36725,8 +36827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29C0477F-6AB5-4B5B-84E8-99831DB6389C}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -36749,13 +36851,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -36803,7 +36905,7 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="4">
-        <v>1070</v>
+        <v>1024</v>
       </c>
       <c r="E4" s="4">
         <v>1024</v>
@@ -36835,17 +36937,17 @@
         <v>5</v>
       </c>
       <c r="B6" s="4">
-        <v>232</v>
+        <v>933</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="4">
-        <v>231</v>
+        <v>917</v>
       </c>
       <c r="E6" s="4">
-        <v>231</v>
+        <v>917</v>
       </c>
       <c r="F6" s="4">
-        <v>231</v>
+        <v>821</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -36927,19 +37029,19 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <f>SUM(B2:B13)</f>
-        <v>4121</v>
+        <v>4822</v>
       </c>
       <c r="D14" s="21">
         <f>SUM(D2:D13)</f>
-        <v>4116</v>
+        <v>4756</v>
       </c>
       <c r="E14" s="21">
         <f>SUM(E2:E13)</f>
-        <v>4070</v>
+        <v>4756</v>
       </c>
       <c r="F14" s="21">
         <f>SUM(F2:F13)</f>
-        <v>4060</v>
+        <v>4650</v>
       </c>
       <c r="J14" s="28"/>
     </row>
@@ -36979,13 +37081,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -37269,13 +37371,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -37536,7 +37638,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F14"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -37559,13 +37661,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -37627,7 +37729,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="4">
@@ -37789,7 +37891,7 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <f>SUM(B2:B13)</f>
-        <v>10103</v>
+        <v>10102</v>
       </c>
       <c r="D14" s="21">
         <f>SUM(D2:D13)</f>
@@ -37826,7 +37928,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -37849,13 +37951,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -38027,7 +38129,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="4">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="4">
@@ -38079,7 +38181,7 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1">
         <f>SUM(B2:B13)</f>
-        <v>10225</v>
+        <v>10224</v>
       </c>
       <c r="D14" s="21">
         <f>SUM(D2:D13)</f>
@@ -38139,13 +38241,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
